--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,49</t>
+          <t>-6,05; 8,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,99</t>
+          <t>-4,62; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 7,63</t>
+          <t>-3,88; 7,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 3,4</t>
+          <t>-7,43; 3,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 425,68</t>
+          <t>-78,56; 601,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,33</t>
+          <t>-1,26; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,63</t>
+          <t>-1,73; 1,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,18</t>
+          <t>0,26; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,73</t>
+          <t>-0,09; 10,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 167,88</t>
+          <t>-37,03; 138,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 195,69</t>
+          <t>-70,35; 212,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 1236,52</t>
+          <t>3,56; 1333,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,83; —</t>
+          <t>-40,69; —</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,73</t>
+          <t>-2,51; 3,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,92</t>
+          <t>-0,53; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,46</t>
+          <t>-4,43; -0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -0,51</t>
+          <t>-5,27; -0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,07; 626,37</t>
+          <t>-77,66; 395,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-99,59; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 50,0</t>
+          <t>-100,0; 54,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,83</t>
+          <t>-0,88; 2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,75</t>
+          <t>-0,81; 1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,9</t>
+          <t>-0,41; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,45</t>
+          <t>-1,02; 5,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 135,16</t>
+          <t>-26,17; 116,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 174,73</t>
+          <t>-44,27; 188,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 342,19</t>
+          <t>-30,1; 335,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 694,75</t>
+          <t>-70,09; 604,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,14%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 8,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 7,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,17; 3,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,51%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>225,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-54,26%</t>
+          <t>1157,3%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 8,0</t>
+          <t>-1,42; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,83</t>
+          <t>-1,83; 1,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 7,44</t>
+          <t>0,37; 3,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,53</t>
+          <t>-0,1; 25,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 601,01</t>
+          <t>-39,29; 150,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,95; 186,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 1177,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,03; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>221,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>225,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>386,04%</t>
+          <t>-84,67%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,06</t>
+          <t>-2,48; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,7</t>
+          <t>-0,35; 6,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,1</t>
+          <t>-4,59; -0,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 10,22</t>
+          <t>-5,55; -0,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 138,94</t>
+          <t>-81,19; 509,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 212,34</t>
+          <t>-75,75; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 1333,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,69; —</t>
+          <t>-100,0; 153,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>221,82%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-85,11%</t>
+          <t>268,09%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,39</t>
+          <t>-0,96; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,73</t>
+          <t>-1,03; 1,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,46</t>
+          <t>-0,51; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,4</t>
+          <t>-0,84; 18,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,66; 395,36</t>
+          <t>-24,52; 132,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-99,59; —</t>
+          <t>-51,07; 158,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,68; 289,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,6</t>
+          <t>-62,2; 1905,86</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>30,37%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>61,45%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>51,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 2,69</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 1,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 5,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-26,17; 116,15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-44,27; 188,5</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-30,1; 335,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-70,09; 604,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
